--- a/results/tinybert/dilemma/confidence/0.1/avg_scores.xlsx
+++ b/results/tinybert/dilemma/confidence/0.1/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="304">
   <si>
     <t>negative</t>
   </si>
@@ -43,742 +43,889 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>annoying</t>
+  </si>
+  <si>
+    <t>passive</t>
+  </si>
+  <si>
+    <t>frustrating</t>
+  </si>
+  <si>
+    <t>unfortunate</t>
+  </si>
+  <si>
+    <t>excessive</t>
+  </si>
+  <si>
+    <t>terribly</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>outdated</t>
+  </si>
+  <si>
+    <t>consuming</t>
+  </si>
+  <si>
+    <t>harmful</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>problematic</t>
+  </si>
+  <si>
+    <t>disgusted</t>
+  </si>
+  <si>
+    <t>worthless</t>
+  </si>
+  <si>
+    <t>shitty</t>
+  </si>
+  <si>
+    <t>painful</t>
+  </si>
+  <si>
+    <t>sucks</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>helpless</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>lazy</t>
+  </si>
+  <si>
+    <t>ashamed</t>
+  </si>
+  <si>
+    <t>pathetic</t>
+  </si>
+  <si>
+    <t>terrible</t>
+  </si>
+  <si>
+    <t>foolish</t>
+  </si>
+  <si>
+    <t>filthy</t>
+  </si>
+  <si>
+    <t>dreadful</t>
+  </si>
+  <si>
+    <t>unnecessary</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>differently</t>
+  </si>
+  <si>
+    <t>nasty</t>
+  </si>
+  <si>
+    <t>violating</t>
+  </si>
+  <si>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>unfortunately</t>
+  </si>
+  <si>
+    <t>unusual</t>
+  </si>
+  <si>
+    <t>uncomfortably</t>
+  </si>
+  <si>
+    <t>severely</t>
+  </si>
+  <si>
+    <t>pointless</t>
+  </si>
+  <si>
+    <t>meaningless</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>needles</t>
-  </si>
-  <si>
-    <t>differently</t>
-  </si>
-  <si>
-    <t>problematic</t>
-  </si>
-  <si>
-    <t>unfortunate</t>
-  </si>
-  <si>
-    <t>ashamed</t>
-  </si>
-  <si>
-    <t>lazy</t>
-  </si>
-  <si>
-    <t>harmful</t>
-  </si>
-  <si>
-    <t>tired</t>
-  </si>
-  <si>
-    <t>passive</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>crude</t>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>badly</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>disappointed</t>
   </si>
   <si>
     <t>hated</t>
   </si>
   <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>nasty</t>
-  </si>
-  <si>
-    <t>unnecessary</t>
-  </si>
-  <si>
-    <t>downward</t>
-  </si>
-  <si>
-    <t>pathetic</t>
-  </si>
-  <si>
-    <t>ominous</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>shitty</t>
-  </si>
-  <si>
-    <t>accusing</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
-    <t>sucks</t>
-  </si>
-  <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>disgusted</t>
-  </si>
-  <si>
-    <t>excessive</t>
-  </si>
-  <si>
-    <t>worthless</t>
-  </si>
-  <si>
-    <t>cruel</t>
-  </si>
-  <si>
-    <t>terrible</t>
-  </si>
-  <si>
-    <t>filthy</t>
-  </si>
-  <si>
-    <t>suspicious</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>throwing</t>
-  </si>
-  <si>
-    <t>violating</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>severely</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>dreadful</t>
-  </si>
-  <si>
-    <t>previous</t>
-  </si>
-  <si>
-    <t>casually</t>
-  </si>
-  <si>
-    <t>horrified</t>
-  </si>
-  <si>
-    <t>meaningless</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>evil</t>
+    <t>harsh</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>destructive</t>
+  </si>
+  <si>
+    <t>dirty</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
+    <t>vicious</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
     <t>guilty</t>
   </si>
   <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>badly</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>slowly</t>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>ugly</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>angry</t>
+  </si>
+  <si>
+    <t>tough</t>
+  </si>
+  <si>
+    <t>eerie</t>
+  </si>
+  <si>
+    <t>strange</t>
+  </si>
+  <si>
+    <t>dangerously</t>
+  </si>
+  <si>
+    <t>freaking</t>
+  </si>
+  <si>
+    <t>extreme</t>
+  </si>
+  <si>
+    <t>heavy</t>
+  </si>
+  <si>
+    <t>confusing</t>
+  </si>
+  <si>
+    <t>carefully</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>overly</t>
+  </si>
+  <si>
+    <t>racist</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>toxic</t>
+  </si>
+  <si>
+    <t>annoyed</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>ruining</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>private</t>
   </si>
   <si>
     <t>corrupt</t>
   </si>
   <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>racist</t>
-  </si>
-  <si>
-    <t>harsh</t>
-  </si>
-  <si>
-    <t>fails</t>
-  </si>
-  <si>
-    <t>other</t>
+    <t>seriously</t>
   </si>
   <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>terribly</t>
+    <t>fuck</t>
   </si>
   <si>
     <t>dumb</t>
   </si>
   <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>ugly</t>
-  </si>
-  <si>
-    <t>angry</t>
-  </si>
-  <si>
-    <t>confusing</t>
-  </si>
-  <si>
-    <t>cold</t>
-  </si>
-  <si>
-    <t>holes</t>
-  </si>
-  <si>
-    <t>sexual</t>
-  </si>
-  <si>
-    <t>heavy</t>
-  </si>
-  <si>
-    <t>unfortunately</t>
-  </si>
-  <si>
-    <t>extreme</t>
-  </si>
-  <si>
-    <t>dangerously</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>insane</t>
+    <t>confused</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
+    <t>lonely</t>
+  </si>
+  <si>
+    <t>outrage</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>anxious</t>
+  </si>
+  <si>
+    <t>ironically</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>shocked</t>
+  </si>
+  <si>
     <t>serious</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>blocking</t>
-  </si>
-  <si>
-    <t>overly</t>
+    <t>black</t>
+  </si>
+  <si>
+    <t>chilling</t>
+  </si>
+  <si>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>few</t>
   </si>
   <si>
     <t>sad</t>
   </si>
   <si>
-    <t>dirty</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>slow</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>stomach</t>
-  </si>
-  <si>
-    <t>destructive</t>
-  </si>
-  <si>
-    <t>artificial</t>
-  </si>
-  <si>
-    <t>harder</t>
-  </si>
-  <si>
-    <t>ruining</t>
-  </si>
-  <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>drunk</t>
-  </si>
-  <si>
-    <t>disagree</t>
-  </si>
-  <si>
-    <t>silly</t>
+    <t>fake</t>
   </si>
   <si>
     <t>down</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>anxious</t>
-  </si>
-  <si>
-    <t>ironically</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>suicide</t>
-  </si>
-  <si>
-    <t>fake</t>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>single</t>
   </si>
   <si>
     <t>mean</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
     <t>half</t>
   </si>
   <si>
-    <t>few</t>
-  </si>
-  <si>
-    <t>chilling</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>until</t>
-  </si>
-  <si>
-    <t>afraid</t>
-  </si>
-  <si>
-    <t>different</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>late</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>less</t>
+    <t>only</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>impressive</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>delighted</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>refreshing</t>
+  </si>
+  <si>
+    <t>splendid</t>
+  </si>
+  <si>
+    <t>worthy</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>metric</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>useful</t>
+  </si>
+  <si>
+    <t>elegant</t>
+  </si>
+  <si>
+    <t>oldest</t>
+  </si>
+  <si>
+    <t>greatest</t>
+  </si>
+  <si>
+    <t>emotional</t>
+  </si>
+  <si>
+    <t>chile</t>
+  </si>
+  <si>
+    <t>unprecedented</t>
+  </si>
+  <si>
+    <t>astonishing</t>
+  </si>
+  <si>
+    <t>delightful</t>
+  </si>
+  <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
+    <t>greater</t>
+  </si>
+  <si>
+    <t>dream</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>fancy</t>
+  </si>
+  <si>
+    <t>highest</t>
+  </si>
+  <si>
+    <t>famous</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>humane</t>
+  </si>
+  <si>
+    <t>enhanced</t>
+  </si>
+  <si>
+    <t>trusted</t>
+  </si>
+  <si>
+    <t>beautifully</t>
+  </si>
+  <si>
+    <t>stunning</t>
+  </si>
+  <si>
+    <t>professional</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>decent</t>
+  </si>
+  <si>
+    <t>easier</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>successful</t>
+  </si>
+  <si>
+    <t>international</t>
+  </si>
+  <si>
+    <t>masterpiece</t>
+  </si>
+  <si>
+    <t>plus</t>
+  </si>
+  <si>
+    <t>vital</t>
+  </si>
+  <si>
+    <t>biggest</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>outstanding</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>liked</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>21st</t>
+  </si>
+  <si>
+    <t>agile</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>hugely</t>
+  </si>
+  <si>
+    <t>thoughtful</t>
+  </si>
+  <si>
+    <t>amazed</t>
+  </si>
+  <si>
+    <t>appreciate</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>accurate</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>st</t>
+  </si>
+  <si>
+    <t>democracy</t>
+  </si>
+  <si>
+    <t>hits</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>goals</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>recommendation</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>goodbye</t>
+  </si>
+  <si>
+    <t>waiting</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>opt</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>polar</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>insight</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>ironic</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>society</t>
+  </si>
+  <si>
+    <t>pro</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>opening</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>faster</t>
+  </si>
+  <si>
+    <t>its</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>don</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>’</t>
   </si>
   <si>
     <t>[UNK]</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>only</t>
+    <t>how</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
   <si>
     <t>to</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>refreshing</t>
-  </si>
-  <si>
-    <t>delighted</t>
-  </si>
-  <si>
-    <t>elegant</t>
-  </si>
-  <si>
-    <t>astonishing</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
-    <t>oldest</t>
-  </si>
-  <si>
-    <t>impressive</t>
-  </si>
-  <si>
-    <t>delightful</t>
-  </si>
-  <si>
-    <t>splendid</t>
-  </si>
-  <si>
-    <t>clarity</t>
-  </si>
-  <si>
-    <t>greatest</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>famous</t>
-  </si>
-  <si>
-    <t>worthy</t>
-  </si>
-  <si>
-    <t>greater</t>
-  </si>
-  <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
-    <t>highest</t>
-  </si>
-  <si>
-    <t>entirety</t>
-  </si>
-  <si>
-    <t>enhanced</t>
-  </si>
-  <si>
-    <t>beautifully</t>
-  </si>
-  <si>
-    <t>stunning</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>goals</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>improvement</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>masterpiece</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>biggest</t>
-  </si>
-  <si>
-    <t>unprecedented</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>outstanding</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>own</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>advanced</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>persona</t>
-  </si>
-  <si>
-    <t>hugely</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>relevant</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>truly</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>holy</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>del</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>its</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>facebook</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>just</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>that</t>
-  </si>
-  <si>
-    <t>’</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1283,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q150"/>
+  <dimension ref="A1:Q167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1147,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1202,16 +1349,16 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1226,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1252,16 +1399,16 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1276,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1302,7 +1449,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1326,16 +1473,16 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1352,16 +1499,16 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1376,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1402,16 +1549,16 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1426,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1452,7 +1599,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1476,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1502,16 +1649,16 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1526,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1552,16 +1699,16 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1576,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1602,16 +1749,16 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1626,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1652,7 +1799,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1676,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1702,16 +1849,16 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1726,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1752,16 +1899,16 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1776,16 +1923,16 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1802,16 +1949,16 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1826,16 +1973,16 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1852,40 +1999,40 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>3</v>
       </c>
-      <c r="D16">
+      <c r="M16">
         <v>3</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1902,7 +2049,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1926,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1952,16 +2099,16 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1976,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -2002,7 +2149,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2026,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -2052,7 +2199,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2076,16 +2223,16 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2102,7 +2249,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2126,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -2152,16 +2299,16 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2176,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -2202,7 +2349,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2226,16 +2373,16 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2252,16 +2399,16 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2276,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2302,7 +2449,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2326,16 +2473,16 @@
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="K25">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2347,12 +2494,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2376,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="K26">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2397,12 +2544,12 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2426,16 +2573,16 @@
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="K27">
-        <v>0.8181818181818182</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2447,12 +2594,12 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2476,16 +2623,16 @@
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="K28">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2497,21 +2644,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2526,16 +2673,16 @@
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="K29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2547,21 +2694,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2576,16 +2723,16 @@
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="K30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2597,21 +2744,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2626,16 +2773,16 @@
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="K31">
-        <v>0.6333333333333333</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2647,21 +2794,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2676,16 +2823,16 @@
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="K32">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2697,21 +2844,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2726,16 +2873,16 @@
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="K33">
-        <v>0.5789473684210527</v>
+        <v>1</v>
       </c>
       <c r="L33">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="M33">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2747,12 +2894,12 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2776,16 +2923,16 @@
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="K34">
-        <v>0.5157894736842106</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2797,12 +2944,12 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2826,10 +2973,10 @@
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="K35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -2847,12 +2994,12 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -2876,16 +3023,16 @@
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="K36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2897,12 +3044,12 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2926,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="K37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -2947,21 +3094,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2976,10 +3123,10 @@
         <v>0</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="K38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -2997,21 +3144,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3026,10 +3173,10 @@
         <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="K39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -3047,12 +3194,12 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -3076,16 +3223,16 @@
         <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="K40">
-        <v>0.5</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3102,7 +3249,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -3126,16 +3273,16 @@
         <v>0</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="K41">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="L41">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="M41">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3147,12 +3294,12 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -3176,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>7</v>
+        <v>178</v>
       </c>
       <c r="K42">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3197,12 +3344,12 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -3226,16 +3373,16 @@
         <v>0</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="K43">
-        <v>0.5</v>
+        <v>0.7578947368421053</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3247,21 +3394,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3273,19 +3420,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="K44">
-        <v>0.5</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="M44">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3297,71 +3444,71 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C45">
+        <v>62</v>
+      </c>
+      <c r="D45">
+        <v>62</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>4</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K45">
+        <v>0.7</v>
+      </c>
+      <c r="L45">
+        <v>7</v>
+      </c>
+      <c r="M45">
+        <v>7</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
         <v>3</v>
-      </c>
-      <c r="D45">
-        <v>3</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="K45">
-        <v>0.5</v>
-      </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>1</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -3373,19 +3520,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="K46">
-        <v>0.5</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="L46">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3397,21 +3544,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3423,19 +3570,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="K47">
-        <v>0.4827586206896552</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="L47">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="M47">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3447,21 +3594,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3473,19 +3620,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="K48">
-        <v>0.4594594594594595</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="L48">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M48">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3497,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3505,13 +3652,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3523,19 +3670,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="K49">
-        <v>0.4533333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="L49">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="M49">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3547,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>41</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3555,13 +3702,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3573,19 +3720,19 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="K50">
-        <v>0.3833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="L50">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="M50">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3597,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3605,13 +3752,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.9666666666666667</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C51">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3623,19 +3770,19 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="K51">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="L51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3647,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3655,13 +3802,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.9545454545454546</v>
+        <v>0.75</v>
       </c>
       <c r="C52">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="D52">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3673,19 +3820,19 @@
         <v>0</v>
       </c>
       <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K52">
+        <v>0.5</v>
+      </c>
+      <c r="L52">
         <v>3</v>
       </c>
-      <c r="J52" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="K52">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
       <c r="M52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3697,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3705,13 +3852,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.9230769230769231</v>
+        <v>0.75</v>
       </c>
       <c r="C53">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="D53">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3723,13 +3870,13 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="K53">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -3747,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3755,13 +3902,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.8461538461538461</v>
+        <v>0.75</v>
       </c>
       <c r="C54">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D54">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3773,19 +3920,19 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="K54">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="L54">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M54">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3797,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3805,13 +3952,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.8235294117647058</v>
+        <v>0.675</v>
       </c>
       <c r="C55">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D55">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3823,13 +3970,13 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="K55">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="L55">
         <v>1</v>
@@ -3847,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3855,13 +4002,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.8125</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C56">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D56">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3873,13 +4020,13 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="K56">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="L56">
         <v>1</v>
@@ -3897,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3905,13 +4052,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3926,10 +4073,10 @@
         <v>1</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="K57">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="L57">
         <v>1</v>
@@ -3947,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3955,13 +4102,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.7894736842105263</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C58">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D58">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3973,13 +4120,13 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="K58">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="L58">
         <v>1</v>
@@ -3997,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -4005,13 +4152,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C59">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D59">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -4023,19 +4170,19 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="K59">
-        <v>0.2727272727272727</v>
+        <v>0.5</v>
       </c>
       <c r="L59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -4047,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -4055,13 +4202,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C60">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D60">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -4073,19 +4220,19 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="K60">
-        <v>0.265625</v>
+        <v>0.5</v>
       </c>
       <c r="L60">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="M60">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -4097,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -4105,13 +4252,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -4126,16 +4273,16 @@
         <v>1</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="K61">
-        <v>0.2631578947368421</v>
+        <v>0.5</v>
       </c>
       <c r="L61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -4147,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -4155,13 +4302,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.6666666666666666</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4173,19 +4320,19 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="K62">
-        <v>0.25</v>
+        <v>0.4933333333333333</v>
       </c>
       <c r="L62">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4197,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -4205,13 +4352,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4223,19 +4370,19 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="K63">
-        <v>0.25</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4247,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4255,13 +4402,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -4273,19 +4420,19 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="K64">
-        <v>0.2</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4305,13 +4452,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.6666666666666666</v>
+        <v>0.5625</v>
       </c>
       <c r="C65">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -4323,13 +4470,13 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="K65">
-        <v>0.1538461538461539</v>
+        <v>0.4</v>
       </c>
       <c r="L65">
         <v>2</v>
@@ -4347,7 +4494,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -4355,13 +4502,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4373,19 +4520,19 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="K66">
-        <v>0.1428571428571428</v>
+        <v>0.4</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4397,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -4405,13 +4552,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.6666666666666666</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -4423,19 +4570,19 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="K67">
-        <v>0.1428571428571428</v>
+        <v>0.4</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4447,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -4455,13 +4602,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.6666666666666666</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4473,19 +4620,19 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="K68">
-        <v>0.1428571428571428</v>
+        <v>0.375</v>
       </c>
       <c r="L68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4497,7 +4644,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -4505,13 +4652,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.6515151515151515</v>
+        <v>0.5</v>
       </c>
       <c r="C69">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D69">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4523,19 +4670,19 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="K69">
-        <v>0.1428571428571428</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L69">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M69">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4547,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -4555,13 +4702,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="C70">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -4573,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="K70">
-        <v>0.1428571428571428</v>
+        <v>0.34375</v>
       </c>
       <c r="L70">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4597,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -4605,13 +4752,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C71">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -4623,19 +4770,19 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="K71">
-        <v>0.125</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4647,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -4655,13 +4802,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -4673,19 +4820,19 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="K72">
-        <v>0.125</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4697,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -4705,13 +4852,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="C73">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -4723,13 +4870,13 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="K73">
-        <v>0.1111111111111111</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L73">
         <v>1</v>
@@ -4747,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -4755,13 +4902,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="C74">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -4773,13 +4920,13 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="K74">
-        <v>0.07692307692307693</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -4797,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -4805,13 +4952,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="C75">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D75">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -4823,19 +4970,19 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="K75">
-        <v>0.07407407407407407</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4847,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -4876,10 +5023,10 @@
         <v>1</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="K76">
-        <v>0.0625</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L76">
         <v>1</v>
@@ -4897,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -4908,10 +5055,10 @@
         <v>0.5</v>
       </c>
       <c r="C77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -4923,13 +5070,13 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="K77">
-        <v>0.0625</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L77">
         <v>1</v>
@@ -4947,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -4958,10 +5105,10 @@
         <v>0.5</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -4973,19 +5120,19 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="K78">
-        <v>0.06060606060606061</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4997,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -5026,16 +5173,16 @@
         <v>1</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="K79">
-        <v>0.05084745762711865</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -5047,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -5058,10 +5205,10 @@
         <v>0.5</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -5073,13 +5220,13 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="K80">
-        <v>0.04761904761904762</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L80">
         <v>1</v>
@@ -5097,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -5108,10 +5255,10 @@
         <v>0.5</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -5123,19 +5270,19 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="K81">
-        <v>0.02816901408450704</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -5147,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -5158,10 +5305,10 @@
         <v>0.5</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -5173,19 +5320,19 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="K82">
-        <v>0.02380952380952381</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -5197,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -5205,13 +5352,13 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -5223,19 +5370,19 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="K83">
-        <v>0.02083333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -5247,7 +5394,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -5255,13 +5402,13 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -5273,19 +5420,19 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="K84">
-        <v>0.0196078431372549</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -5297,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -5305,13 +5452,13 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.5</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -5323,13 +5470,13 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="K85">
-        <v>0.01886792452830189</v>
+        <v>0.25</v>
       </c>
       <c r="L85">
         <v>1</v>
@@ -5347,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -5355,13 +5502,13 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -5373,13 +5520,13 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="K86">
-        <v>0.01639344262295082</v>
+        <v>0.25</v>
       </c>
       <c r="L86">
         <v>1</v>
@@ -5397,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -5405,13 +5552,13 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.5</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -5423,19 +5570,19 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="K87">
-        <v>0.01548269581056466</v>
+        <v>0.25</v>
       </c>
       <c r="L87">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="M87">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5447,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>1081</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -5455,13 +5602,13 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.5</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -5473,13 +5620,13 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="K88">
-        <v>0.01538461538461539</v>
+        <v>0.2</v>
       </c>
       <c r="L88">
         <v>1</v>
@@ -5497,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:17">
@@ -5505,13 +5652,13 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.5</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -5523,13 +5670,13 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="K89">
-        <v>0.0136986301369863</v>
+        <v>0.2</v>
       </c>
       <c r="L89">
         <v>1</v>
@@ -5547,7 +5694,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>72</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:17">
@@ -5555,13 +5702,13 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.4710144927536232</v>
+        <v>0.35</v>
       </c>
       <c r="C90">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="D90">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -5573,13 +5720,13 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="K90">
-        <v>0.01265822784810127</v>
+        <v>0.2</v>
       </c>
       <c r="L90">
         <v>1</v>
@@ -5597,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>78</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -5605,13 +5752,13 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.4705882352941176</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C91">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D91">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -5623,19 +5770,19 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="K91">
-        <v>0.005934718100890208</v>
+        <v>0.2</v>
       </c>
       <c r="L91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5647,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>335</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:17">
@@ -5655,13 +5802,13 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.4615384615384616</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C92">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -5673,19 +5820,19 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="K92">
-        <v>0.005194805194805195</v>
+        <v>0.2</v>
       </c>
       <c r="L92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5697,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>383</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:17">
@@ -5705,13 +5852,13 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.4615384615384616</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C93">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D93">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -5723,13 +5870,13 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="K93">
-        <v>0.004424778761061947</v>
+        <v>0.2</v>
       </c>
       <c r="L93">
         <v>1</v>
@@ -5747,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>225</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:17">
@@ -5755,13 +5902,13 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.4545454545454545</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -5773,13 +5920,13 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="K94">
-        <v>0.003597122302158274</v>
+        <v>0.2</v>
       </c>
       <c r="L94">
         <v>1</v>
@@ -5797,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>277</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:17">
@@ -5805,13 +5952,13 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.45</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C95">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -5823,19 +5970,19 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="K95">
-        <v>0.002079002079002079</v>
+        <v>0.2</v>
       </c>
       <c r="L95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -5847,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>960</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -5855,13 +6002,13 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.4285714285714285</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C96">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -5873,19 +6020,19 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="K96">
-        <v>0.001818181818181818</v>
+        <v>0.1875</v>
       </c>
       <c r="L96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -5897,7 +6044,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>549</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:17">
@@ -5905,13 +6052,13 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -5923,19 +6070,19 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="K97">
-        <v>0.001280409731113956</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L97">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M97">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -5947,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>780</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:17">
@@ -5955,13 +6102,13 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C98">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -5973,13 +6120,13 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="K98">
-        <v>0.001152073732718894</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L98">
         <v>2</v>
@@ -5997,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>1734</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:17">
@@ -6005,13 +6152,13 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.3809523809523809</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C99">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D99">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -6023,13 +6170,13 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="K99">
-        <v>0.001138952164009112</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L99">
         <v>1</v>
@@ -6047,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>877</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:17">
@@ -6055,13 +6202,13 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.3617021276595745</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C100">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -6073,31 +6220,31 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c r="K100">
-        <v>0.0009090909090909091</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L100">
         <v>1</v>
       </c>
       <c r="M100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N100">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O100">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q100">
-        <v>1099</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:17">
@@ -6126,10 +6273,10 @@
         <v>2</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="K101">
-        <v>0.0008748906386701663</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L101">
         <v>1</v>
@@ -6147,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>1142</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:17">
@@ -6155,13 +6302,13 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.3333333333333333</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -6173,19 +6320,19 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="K102">
-        <v>0.0003586800573888092</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -6197,7 +6344,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>2787</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:17">
@@ -6205,13 +6352,13 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.3333333333333333</v>
+        <v>0.3125</v>
       </c>
       <c r="C103">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D103">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -6223,7 +6370,31 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K103">
+        <v>0.1458333333333333</v>
+      </c>
+      <c r="L103">
+        <v>7</v>
+      </c>
+      <c r="M103">
+        <v>7</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>1</v>
+      </c>
+      <c r="P103" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>41</v>
       </c>
     </row>
     <row r="104" spans="1:17">
@@ -6231,13 +6402,13 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.3333333333333333</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -6249,7 +6420,31 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K104">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>1</v>
+      </c>
+      <c r="P104" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:17">
@@ -6257,13 +6452,13 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.3333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -6275,7 +6470,31 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K105">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="L105">
+        <v>2</v>
+      </c>
+      <c r="M105">
+        <v>2</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>1</v>
+      </c>
+      <c r="P105" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:17">
@@ -6283,13 +6502,13 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.3333333333333333</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -6301,7 +6520,31 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K106">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>1</v>
+      </c>
+      <c r="P106" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:17">
@@ -6309,25 +6552,49 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107" t="b">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>3</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K107">
+        <v>0.1212121212121212</v>
+      </c>
+      <c r="L107">
         <v>4</v>
       </c>
-      <c r="D107">
+      <c r="M107">
         <v>4</v>
       </c>
-      <c r="E107">
-        <v>1</v>
-      </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107" t="b">
-        <v>0</v>
-      </c>
-      <c r="H107">
-        <v>8</v>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>1</v>
+      </c>
+      <c r="P107" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:17">
@@ -6335,13 +6602,13 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.3333333333333333</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -6353,7 +6620,31 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K108">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L108">
+        <v>4</v>
+      </c>
+      <c r="M108">
+        <v>4</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>1</v>
+      </c>
+      <c r="P108" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>32</v>
       </c>
     </row>
     <row r="109" spans="1:17">
@@ -6361,13 +6652,13 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.3333333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -6379,7 +6670,31 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K109">
+        <v>0.1</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>1</v>
+      </c>
+      <c r="P109" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:17">
@@ -6387,13 +6702,13 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.3333333333333333</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -6405,7 +6720,31 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>31</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="K110">
+        <v>0.07317073170731707</v>
+      </c>
+      <c r="L110">
+        <v>3</v>
+      </c>
+      <c r="M110">
+        <v>3</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>1</v>
+      </c>
+      <c r="P110" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>38</v>
       </c>
     </row>
     <row r="111" spans="1:17">
@@ -6413,7 +6752,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -6431,7 +6770,31 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="K111">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>1</v>
+      </c>
+      <c r="P111" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -6439,7 +6802,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -6457,21 +6820,45 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>4</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K112">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>1</v>
+      </c>
+      <c r="P112" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
       <c r="A113" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.3333333333333333</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -6483,15 +6870,39 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K113">
+        <v>0.06779661016949153</v>
+      </c>
+      <c r="L113">
+        <v>4</v>
+      </c>
+      <c r="M113">
+        <v>4</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>1</v>
+      </c>
+      <c r="P113" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
       <c r="A114" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -6509,15 +6920,39 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>5</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K114">
+        <v>0.0625</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>1</v>
+      </c>
+      <c r="P114" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
       <c r="A115" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -6535,21 +6970,45 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>5</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K115">
+        <v>0.0625</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>1</v>
+      </c>
+      <c r="P115" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
       <c r="A116" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.3157894736842105</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C116">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D116">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -6561,21 +7020,45 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>5</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="K116">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="L116">
+        <v>4</v>
+      </c>
+      <c r="M116">
+        <v>4</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>1</v>
+      </c>
+      <c r="P116" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
       <c r="A117" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.3043478260869565</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="C117">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D117">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -6589,19 +7072,43 @@
       <c r="H117">
         <v>16</v>
       </c>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="J117" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="K117">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>1</v>
+      </c>
+      <c r="P117" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
       <c r="A118" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.25</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C118">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D118">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -6613,21 +7120,45 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K118">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>1</v>
+      </c>
+      <c r="P118" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
       <c r="A119" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.25</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -6639,21 +7170,45 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="K119">
+        <v>0.05100182149362478</v>
+      </c>
+      <c r="L119">
+        <v>56</v>
+      </c>
+      <c r="M119">
+        <v>56</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>1</v>
+      </c>
+      <c r="P119" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17">
       <c r="A120" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.25</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C120">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D120">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -6665,15 +7220,39 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K120">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>1</v>
+      </c>
+      <c r="P120" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
       <c r="A121" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.25</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -6691,15 +7270,39 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>8</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K121">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="L121">
+        <v>2</v>
+      </c>
+      <c r="M121">
+        <v>2</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>1</v>
+      </c>
+      <c r="P121" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17">
       <c r="A122" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -6717,21 +7320,45 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="K122">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="L122">
+        <v>2</v>
+      </c>
+      <c r="M122">
+        <v>2</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>1</v>
+      </c>
+      <c r="P122" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17">
       <c r="A123" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.2</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -6743,21 +7370,45 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K123">
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>1</v>
+      </c>
+      <c r="P123" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17">
       <c r="A124" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.1777777777777778</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C124">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -6769,21 +7420,45 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K124">
+        <v>0.0303030303030303</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>1</v>
+      </c>
+      <c r="P124" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17">
       <c r="A125" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.1666666666666667</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C125">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D125">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -6795,21 +7470,45 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="K125">
+        <v>0.02941176470588235</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>1</v>
+      </c>
+      <c r="P125" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17">
       <c r="A126" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.1666666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -6821,15 +7520,39 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K126">
+        <v>0.02857142857142857</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>1</v>
+      </c>
+      <c r="P126" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17">
       <c r="A127" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.1666666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -6847,15 +7570,39 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="K127">
+        <v>0.02816901408450704</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>2</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>1</v>
+      </c>
+      <c r="P127" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17">
       <c r="A128" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.1666666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -6873,21 +7620,45 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K128">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>1</v>
+      </c>
+      <c r="P128" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17">
       <c r="A129" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.1428571428571428</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -6899,15 +7670,39 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="K129">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>1</v>
+      </c>
+      <c r="P129" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17">
       <c r="A130" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.1428571428571428</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -6925,21 +7720,45 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K130">
+        <v>0.02597402597402598</v>
+      </c>
+      <c r="L130">
+        <v>10</v>
+      </c>
+      <c r="M130">
+        <v>10</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>1</v>
+      </c>
+      <c r="P130" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17">
       <c r="A131" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.141025641025641</v>
+        <v>0.04</v>
       </c>
       <c r="C131">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -6951,501 +7770,991 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K131">
+        <v>0.02439024390243903</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>1</v>
+      </c>
+      <c r="P131" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17">
       <c r="A132" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.1363636363636364</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132" t="b">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>148</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="K132">
+        <v>0.02222222222222222</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>1</v>
+      </c>
+      <c r="P132" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17">
+      <c r="J133" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K133">
+        <v>0.01923076923076923</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <v>1</v>
+      </c>
+      <c r="P133" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17">
+      <c r="J134" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="K134">
+        <v>0.01851851851851852</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <v>1</v>
+      </c>
+      <c r="P134" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q134">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17">
+      <c r="J135" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="K135">
+        <v>0.01639344262295082</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <v>1</v>
+      </c>
+      <c r="P135" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17">
+      <c r="J136" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K136">
+        <v>0.01639344262295082</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <v>1</v>
+      </c>
+      <c r="P136" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17">
+      <c r="J137" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="K137">
+        <v>0.0145985401459854</v>
+      </c>
+      <c r="L137">
+        <v>2</v>
+      </c>
+      <c r="M137">
+        <v>2</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>1</v>
+      </c>
+      <c r="P137" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17">
+      <c r="J138" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="K138">
+        <v>0.01413427561837456</v>
+      </c>
+      <c r="L138">
+        <v>4</v>
+      </c>
+      <c r="M138">
+        <v>4</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>1</v>
+      </c>
+      <c r="P138" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17">
+      <c r="J139" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K139">
+        <v>0.01351351351351351</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>1</v>
+      </c>
+      <c r="P139" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17">
+      <c r="J140" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K140">
+        <v>0.01204819277108434</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <v>1</v>
+      </c>
+      <c r="P140" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q140">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17">
+      <c r="J141" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="K141">
+        <v>0.01052631578947368</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <v>1</v>
+      </c>
+      <c r="P141" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17">
+      <c r="J142" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K142">
+        <v>0.008</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <v>1</v>
+      </c>
+      <c r="P142" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17">
+      <c r="J143" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K143">
+        <v>0.007633587786259542</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <v>1</v>
+      </c>
+      <c r="P143" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17">
+      <c r="J144" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K144">
+        <v>0.006896551724137931</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>1</v>
+      </c>
+      <c r="P144" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q144">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="145" spans="10:17">
+      <c r="J145" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K145">
+        <v>0.004878048780487805</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>1</v>
+      </c>
+      <c r="P145" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q145">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="146" spans="10:17">
+      <c r="J146" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K146">
+        <v>0.004518072289156626</v>
+      </c>
+      <c r="L146">
         <v>3</v>
       </c>
-      <c r="D132">
+      <c r="M146">
         <v>3</v>
       </c>
-      <c r="E132">
-        <v>1</v>
-      </c>
-      <c r="F132">
-        <v>0</v>
-      </c>
-      <c r="G132" t="b">
-        <v>0</v>
-      </c>
-      <c r="H132">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B133">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="C133">
-        <v>2</v>
-      </c>
-      <c r="D133">
-        <v>2</v>
-      </c>
-      <c r="E133">
-        <v>1</v>
-      </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-      <c r="G133" t="b">
-        <v>0</v>
-      </c>
-      <c r="H133">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B134">
-        <v>0.12</v>
-      </c>
-      <c r="C134">
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146">
+        <v>1</v>
+      </c>
+      <c r="P146" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q146">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="147" spans="10:17">
+      <c r="J147" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="K147">
+        <v>0.004424778761061947</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <v>1</v>
+      </c>
+      <c r="P147" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q147">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="148" spans="10:17">
+      <c r="J148" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="K148">
+        <v>0.003841229193341869</v>
+      </c>
+      <c r="L148">
         <v>3</v>
       </c>
-      <c r="D134">
+      <c r="M148">
         <v>3</v>
       </c>
-      <c r="E134">
-        <v>1</v>
-      </c>
-      <c r="F134">
-        <v>0</v>
-      </c>
-      <c r="G134" t="b">
-        <v>0</v>
-      </c>
-      <c r="H134">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B135">
-        <v>0.1142857142857143</v>
-      </c>
-      <c r="C135">
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>1</v>
+      </c>
+      <c r="P148" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q148">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="149" spans="10:17">
+      <c r="J149" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K149">
+        <v>0.003344481605351171</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <v>1</v>
+      </c>
+      <c r="P149" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q149">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="150" spans="10:17">
+      <c r="J150" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K150">
+        <v>0.0033003300330033</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>1</v>
+      </c>
+      <c r="P150" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="151" spans="10:17">
+      <c r="J151" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="K151">
+        <v>0.003174603174603175</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>1</v>
+      </c>
+      <c r="P151" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q151">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="152" spans="10:17">
+      <c r="J152" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K152">
+        <v>0.002624671916010499</v>
+      </c>
+      <c r="L152">
+        <v>3</v>
+      </c>
+      <c r="M152">
+        <v>3</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152">
+        <v>1</v>
+      </c>
+      <c r="P152" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q152">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="153" spans="10:17">
+      <c r="J153" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="K153">
+        <v>0.002304147465437788</v>
+      </c>
+      <c r="L153">
         <v>4</v>
       </c>
-      <c r="D135">
+      <c r="M153">
         <v>4</v>
       </c>
-      <c r="E135">
-        <v>1</v>
-      </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-      <c r="G135" t="b">
-        <v>0</v>
-      </c>
-      <c r="H135">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B136">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="C136">
-        <v>1</v>
-      </c>
-      <c r="D136">
-        <v>1</v>
-      </c>
-      <c r="E136">
-        <v>1</v>
-      </c>
-      <c r="F136">
-        <v>0</v>
-      </c>
-      <c r="G136" t="b">
-        <v>0</v>
-      </c>
-      <c r="H136">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B137">
-        <v>0.1</v>
-      </c>
-      <c r="C137">
-        <v>1</v>
-      </c>
-      <c r="D137">
-        <v>1</v>
-      </c>
-      <c r="E137">
-        <v>1</v>
-      </c>
-      <c r="F137">
-        <v>0</v>
-      </c>
-      <c r="G137" t="b">
-        <v>0</v>
-      </c>
-      <c r="H137">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B138">
-        <v>0.1</v>
-      </c>
-      <c r="C138">
-        <v>1</v>
-      </c>
-      <c r="D138">
-        <v>1</v>
-      </c>
-      <c r="E138">
-        <v>1</v>
-      </c>
-      <c r="F138">
-        <v>0</v>
-      </c>
-      <c r="G138" t="b">
-        <v>0</v>
-      </c>
-      <c r="H138">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="A139" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B139">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="C139">
-        <v>1</v>
-      </c>
-      <c r="D139">
-        <v>1</v>
-      </c>
-      <c r="E139">
-        <v>1</v>
-      </c>
-      <c r="F139">
-        <v>0</v>
-      </c>
-      <c r="G139" t="b">
-        <v>0</v>
-      </c>
-      <c r="H139">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B140">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="C140">
-        <v>1</v>
-      </c>
-      <c r="D140">
-        <v>1</v>
-      </c>
-      <c r="E140">
-        <v>1</v>
-      </c>
-      <c r="F140">
-        <v>0</v>
-      </c>
-      <c r="G140" t="b">
-        <v>0</v>
-      </c>
-      <c r="H140">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B141">
-        <v>0.08571428571428572</v>
-      </c>
-      <c r="C141">
+      <c r="N153">
+        <v>0</v>
+      </c>
+      <c r="O153">
+        <v>1</v>
+      </c>
+      <c r="P153" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="154" spans="10:17">
+      <c r="J154" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K154">
+        <v>0.00228310502283105</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+      <c r="O154">
+        <v>1</v>
+      </c>
+      <c r="P154" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q154">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="155" spans="10:17">
+      <c r="J155" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K155">
+        <v>0.002100840336134454</v>
+      </c>
+      <c r="L155">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>2</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155">
+        <v>1</v>
+      </c>
+      <c r="P155" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q155">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="156" spans="10:17">
+      <c r="J156" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="K156">
+        <v>0.002092050209205021</v>
+      </c>
+      <c r="L156">
+        <v>2</v>
+      </c>
+      <c r="M156">
+        <v>2</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+      <c r="O156">
+        <v>1</v>
+      </c>
+      <c r="P156" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q156">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="157" spans="10:17">
+      <c r="J157" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="K157">
+        <v>0.001851851851851852</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+      <c r="O157">
+        <v>1</v>
+      </c>
+      <c r="P157" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q157">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="158" spans="10:17">
+      <c r="J158" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="K158">
+        <v>0.001743679163034002</v>
+      </c>
+      <c r="L158">
+        <v>2</v>
+      </c>
+      <c r="M158">
+        <v>2</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+      <c r="O158">
+        <v>1</v>
+      </c>
+      <c r="P158" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q158">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="159" spans="10:17">
+      <c r="J159" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K159">
+        <v>0.001644736842105263</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+      <c r="O159">
+        <v>1</v>
+      </c>
+      <c r="P159" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q159">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="160" spans="10:17">
+      <c r="J160" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="K160">
+        <v>0.001623376623376623</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+      <c r="O160">
+        <v>1</v>
+      </c>
+      <c r="P160" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q160">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="161" spans="10:17">
+      <c r="J161" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="K161">
+        <v>0.001584786053882726</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+      <c r="O161">
+        <v>1</v>
+      </c>
+      <c r="P161" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q161">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="162" spans="10:17">
+      <c r="J162" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="K162">
+        <v>0.001404494382022472</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+      <c r="O162">
+        <v>1</v>
+      </c>
+      <c r="P162" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q162">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="163" spans="10:17">
+      <c r="J163" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="K163">
+        <v>0.001364256480218281</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163">
+        <v>1</v>
+      </c>
+      <c r="P163" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q163">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="164" spans="10:17">
+      <c r="J164" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K164">
+        <v>0.001076040172166427</v>
+      </c>
+      <c r="L164">
         <v>3</v>
       </c>
-      <c r="D141">
+      <c r="M164">
         <v>3</v>
       </c>
-      <c r="E141">
-        <v>1</v>
-      </c>
-      <c r="F141">
-        <v>0</v>
-      </c>
-      <c r="G141" t="b">
-        <v>0</v>
-      </c>
-      <c r="H141">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B142">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="C142">
-        <v>1</v>
-      </c>
-      <c r="D142">
-        <v>1</v>
-      </c>
-      <c r="E142">
-        <v>1</v>
-      </c>
-      <c r="F142">
-        <v>0</v>
-      </c>
-      <c r="G142" t="b">
-        <v>0</v>
-      </c>
-      <c r="H142">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="A143" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B143">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="C143">
-        <v>1</v>
-      </c>
-      <c r="D143">
-        <v>1</v>
-      </c>
-      <c r="E143">
-        <v>1</v>
-      </c>
-      <c r="F143">
-        <v>0</v>
-      </c>
-      <c r="G143" t="b">
-        <v>0</v>
-      </c>
-      <c r="H143">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B144">
-        <v>0.0625</v>
-      </c>
-      <c r="C144">
-        <v>1</v>
-      </c>
-      <c r="D144">
-        <v>1</v>
-      </c>
-      <c r="E144">
-        <v>1</v>
-      </c>
-      <c r="F144">
-        <v>0</v>
-      </c>
-      <c r="G144" t="b">
-        <v>0</v>
-      </c>
-      <c r="H144">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B145">
-        <v>0.05263157894736842</v>
-      </c>
-      <c r="C145">
-        <v>1</v>
-      </c>
-      <c r="D145">
-        <v>1</v>
-      </c>
-      <c r="E145">
-        <v>1</v>
-      </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
-      <c r="G145" t="b">
-        <v>0</v>
-      </c>
-      <c r="H145">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B146">
-        <v>0.04682274247491638</v>
-      </c>
-      <c r="C146">
-        <v>14</v>
-      </c>
-      <c r="D146">
-        <v>14</v>
-      </c>
-      <c r="E146">
-        <v>1</v>
-      </c>
-      <c r="F146">
-        <v>0</v>
-      </c>
-      <c r="G146" t="b">
-        <v>0</v>
-      </c>
-      <c r="H146">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B147">
-        <v>0.04545454545454546</v>
-      </c>
-      <c r="C147">
-        <v>1</v>
-      </c>
-      <c r="D147">
-        <v>1</v>
-      </c>
-      <c r="E147">
-        <v>1</v>
-      </c>
-      <c r="F147">
-        <v>0</v>
-      </c>
-      <c r="G147" t="b">
-        <v>0</v>
-      </c>
-      <c r="H147">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B148">
-        <v>0.03571428571428571</v>
-      </c>
-      <c r="C148">
-        <v>1</v>
-      </c>
-      <c r="D148">
-        <v>1</v>
-      </c>
-      <c r="E148">
-        <v>1</v>
-      </c>
-      <c r="F148">
-        <v>0</v>
-      </c>
-      <c r="G148" t="b">
-        <v>0</v>
-      </c>
-      <c r="H148">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B149">
-        <v>0.006711409395973154</v>
-      </c>
-      <c r="C149">
-        <v>1</v>
-      </c>
-      <c r="D149">
-        <v>1</v>
-      </c>
-      <c r="E149">
-        <v>1</v>
-      </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
-      <c r="G149" t="b">
-        <v>0</v>
-      </c>
-      <c r="H149">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B150">
-        <v>0.0009090909090909091</v>
-      </c>
-      <c r="C150">
-        <v>1</v>
-      </c>
-      <c r="D150">
-        <v>2</v>
-      </c>
-      <c r="E150">
-        <v>0.5</v>
-      </c>
-      <c r="F150">
-        <v>0.5</v>
-      </c>
-      <c r="G150" t="b">
-        <v>1</v>
-      </c>
-      <c r="H150">
-        <v>1099</v>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164">
+        <v>1</v>
+      </c>
+      <c r="P164" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q164">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="165" spans="10:17">
+      <c r="J165" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="K165">
+        <v>0.001018329938900204</v>
+      </c>
+      <c r="L165">
+        <v>4</v>
+      </c>
+      <c r="M165">
+        <v>4</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+      <c r="O165">
+        <v>1</v>
+      </c>
+      <c r="P165" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q165">
+        <v>3924</v>
+      </c>
+    </row>
+    <row r="166" spans="10:17">
+      <c r="J166" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K166">
+        <v>0.0009560229445506692</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+      <c r="O166">
+        <v>1</v>
+      </c>
+      <c r="P166" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q166">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="167" spans="10:17">
+      <c r="J167" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="K167">
+        <v>0.0009082652134423251</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="O167">
+        <v>1</v>
+      </c>
+      <c r="P167" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q167">
+        <v>1100</v>
       </c>
     </row>
   </sheetData>
